--- a/dados/mr sta_catarina.xlsx
+++ b/dados/mr sta_catarina.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,20 +493,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>443.07</v>
+        <v>122.21</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -516,19 +516,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:743721568#searchVariation=MLB21320712&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1899235400-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>499.46</v>
+        <v>498.19</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:743721568#searchVariation=MLB22144397&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2182312935-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,22 +583,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>58.37</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>35.99</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -611,14 +607,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:743721568#searchVariation=MLB28357019&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:743721568#searchVariation=MLB25707531&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,16 +624,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>364.95</v>
+        <v>443.07</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -646,7 +642,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -656,14 +652,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:743721568#searchVariation=MLB23456525&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:743721568#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,20 +669,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Adaptador Conversor De Fio P Rca Jfa Similar Stetsom St6000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>433</v>
+        <v>39.99</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -701,14 +697,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:743721568#searchVariation=MLB21621306&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3349019536-adaptador-conversor-de-fio-p-rca-jfa-similar-stetsom-st6000-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,18 +714,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>369.43</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>410.98</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -737,19 +737,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:743721568#searchVariation=MLB33435981&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3340364773-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>710.24</v>
+        <v>747.63</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -787,14 +787,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:743721568#searchVariation=MLB24154371&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:743721568#searchVariation=MLB24154371&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,20 +804,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Automotiva 120a Amperes Storm Lite Jfa </t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>573.36</v>
+        <v>667.79</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -827,19 +827,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3333349521-fonte-carregador-automotiva-120a-amperes-storm-lite-jfa-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:743721568#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,20 +849,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>473.28</v>
+        <v>564.49</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -872,19 +872,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2182312935-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683779028-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,22 +894,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+          <t>Controle Jfa Red Line Longa Distância</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>99.98999999999999</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -922,14 +918,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1943312126-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2068725388-controle-jfa-red-line-longa-distncia-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,7 +935,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -948,7 +944,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.99</v>
+        <v>349.99</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
@@ -963,14 +959,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:743721568#searchVariation=MLB25707531&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:743721568#searchVariation=MLB33435981&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -980,7 +976,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
+          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -989,7 +985,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>401.09</v>
+        <v>53.99</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
@@ -999,19 +995,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453620677-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2045726198-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1021,16 +1017,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Modulo Amplificador Jfa Ap 400x4 400w Rms 4 Canais Potência Cor Preto</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>449.99</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1049,14 +1045,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/modulo-amplificador-jfa-ap-400x4-400w-rms-4-canais-potncia-cor-preto/p/MLB36972018?pdp_filters=seller_id:743721568#searchVariation=MLB36972018&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1943312126-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1066,20 +1062,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
+          <t>Modulo Amplificador Jfa Ap 400x4 400w Rms 4 Canais Potência Cor Preto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>70.17</v>
+        <v>379.99</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1089,19 +1085,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707795683-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://www.mercadolivre.com.br/modulo-amplificador-jfa-ap-400x4-400w-rms-4-canais-potncia-cor-preto/p/MLB36972018?pdp_filters=seller_id:743721568#searchVariation=MLB36972018&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1111,22 +1107,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 40a Amperes Jfa Carregador </t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>423.99</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>422.21</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1134,19 +1126,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2182358380-fonte-automotiva-40a-amperes-jfa-carregador-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453620677-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1156,20 +1148,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t xml:space="preserve">Fonte Carregador Automotiva 120a Amperes Storm Lite Jfa </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>634.4</v>
+        <v>590.55</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1179,19 +1171,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:743721568#searchVariation=MLB21392652&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3333349521-fonte-carregador-automotiva-120a-amperes-storm-lite-jfa-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1201,20 +1193,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>536.26</v>
+        <v>70.17</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1224,19 +1216,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683779028-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707795683-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1246,7 +1238,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1255,11 +1247,11 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>390.43</v>
+        <v>384.16</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1269,19 +1261,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3340364773-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:743721568#searchVariation=MLB23456525&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1291,18 +1283,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Cd Dvd Eletromagnético</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53.99</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>423.99</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1315,14 +1311,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2045726198-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:743721568#searchVariation=MLB21621306&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1332,18 +1328,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Controle Jfa Red Line Longa Distância</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>111.1</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
+        <v>64.86</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1356,14 +1356,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2068725388-controle-jfa-red-line-longa-distncia-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:743721568#searchVariation=MLB28357019&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1373,20 +1373,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Adaptador Conversor De Fio P Rca Jfa Similar Stetsom St6000</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>39.99</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1396,19 +1396,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3349019536-adaptador-conversor-de-fio-p-rca-jfa-similar-stetsom-st6000-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2171429584-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1418,16 +1418,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+          <t xml:space="preserve">Fonte Automotiva 40a Amperes Jfa Carregador </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>122.21</v>
+        <v>455.79</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1446,14 +1446,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1899235400-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2182385988-fonte-automotiva-40a-amperes-jfa-carregador-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1463,18 +1463,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo Com Nf</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>66.65000000000001</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
+        <v>789.98</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1487,14 +1491,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1899242924-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-com-nf-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3399842475-fonte-carregador-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1504,16 +1508,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 120a Amperes Jfa Carregador </t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>674.6799999999999</v>
+        <v>499.46</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1527,19 +1531,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2182424053-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:743721568#searchVariation=MLB22144397&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1549,16 +1553,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
+          <t xml:space="preserve">Fonte Automotiva 120a Amperes Jfa Carregador </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>750.48</v>
+        <v>710.1900000000001</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1577,14 +1581,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3399842475-fonte-carregador-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2182424053-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1594,22 +1598,18 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo Com Nf</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>111.1</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>59.99</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1617,12 +1617,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2171429584-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D32afbefd-52cc-4591-a7fe-53d66654c8d4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1899242924-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-com-nf-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
         </is>
       </c>
     </row>

--- a/dados/mr sta_catarina.xlsx
+++ b/dados/mr sta_catarina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,20 +493,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>122.21</v>
+        <v>445.19</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -516,19 +516,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1899235400-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5003077432-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,22 +538,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>498.19</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>422.21</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -566,14 +562,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2182312935-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453620677-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,18 +579,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35.99</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>466.39</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -607,14 +607,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:743721568#searchVariation=MLB25707531&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:743721568#wid=MLB3464857703&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,25 +624,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>443.07</v>
+        <v>395.68</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -652,14 +652,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:743721568#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:743721568#wid=MLB4628739704&amp;sid=search&amp;searchVariation=MLB23456525&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,20 +669,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Adaptador Conversor De Fio P Rca Jfa Similar Stetsom St6000</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>39.99</v>
+        <v>667.79</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -692,19 +692,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3349019536-adaptador-conversor-de-fio-p-rca-jfa-similar-stetsom-st6000-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:743721568#wid=MLB3961691630&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,20 +714,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
+          <t>Controle Longa Distancia Jfa K1200 Preto 1200m Completo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>410.98</v>
+        <v>64.86</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -737,19 +737,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3340364773-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2045682700-controle-longa-distancia-jfa-k1200-preto-1200m-completo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,22 +759,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>747.63</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>388.88</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -787,14 +783,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:743721568#searchVariation=MLB24154371&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:743721568#wid=MLB3658530979&amp;sid=search&amp;searchVariation=MLB33435981&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,22 +800,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo Com Nf</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>667.79</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>66.65000000000001</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -827,19 +819,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:743721568#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1899242924-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-com-nf-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,7 +841,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
+          <t xml:space="preserve">Fonte Carregador Automotiva 120a Amperes Storm Lite Jfa </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -858,7 +850,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>564.49</v>
+        <v>621.64</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -872,19 +864,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3683779028-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3333349521-fonte-carregador-automotiva-120a-amperes-storm-lite-jfa-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,18 +886,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Controle Jfa Red Line Longa Distância</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>99.98999999999999</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>466.39</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -913,19 +909,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2068725388-controle-jfa-red-line-longa-distncia-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:743721568#wid=MLB3355941445&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -935,18 +931,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>349.99</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>890.39</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -954,19 +954,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:743721568#searchVariation=MLB33435981&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:743721568#wid=MLB3961684990&amp;sid=search&amp;searchVariation=MLB26091477&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53.99</v>
+        <v>59.99</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
@@ -1000,14 +1000,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2045726198-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2045726198-filtro-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1017,20 +1017,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>99.98999999999999</v>
+        <v>657.1900000000001</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1045,14 +1045,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1943312126-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:743721568#wid=MLB4336988548&amp;sid=search&amp;searchVariation=MLB27156459&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1062,20 +1062,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Modulo Amplificador Jfa Ap 400x4 400w Rms 4 Canais Potência Cor Preto</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>379.99</v>
+        <v>551.1900000000001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/modulo-amplificador-jfa-ap-400x4-400w-rms-4-canais-potncia-cor-preto/p/MLB36972018?pdp_filters=seller_id:743721568#searchVariation=MLB36972018&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2198632479-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt</t>
+          <t>Controle Jfa Red Line Longa Distância</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>422.21</v>
+        <v>111.1</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
@@ -1126,19 +1126,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453620677-fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2068725388-controle-jfa-red-line-longa-distncia-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1148,22 +1148,18 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Automotiva 120a Amperes Storm Lite Jfa </t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>590.55</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>49.99</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1171,19 +1167,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3333349521-fonte-carregador-automotiva-120a-amperes-storm-lite-jfa-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:743721568#wid=MLB3434014273&amp;sid=search&amp;searchVariation=MLB25707531&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1193,20 +1189,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>70.17</v>
+        <v>519.39</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1216,19 +1212,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2707795683-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:743721568#wid=MLB3961715428&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1238,16 +1234,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>384.16</v>
+        <v>731.39</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1261,19 +1257,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:743721568#searchVariation=MLB23456525&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2698126721-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1283,22 +1279,18 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Modulo Amplificador Jfa Ap 380x4 Rms 4 Canais Potência Cor Preto</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>423.99</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>379.99</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1311,14 +1303,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:743721568#searchVariation=MLB21621306&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://www.mercadolivre.com.br/modulo-amplificador-jfa-ap-380x4-rms-4-canais-potncia-cor-preto/p/MLB36972018?pdp_filters=seller_id:743721568#wid=MLB3701763329&amp;sid=search&amp;searchVariation=MLB36972018&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1328,16 +1320,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>64.86</v>
+        <v>116.09</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1351,19 +1343,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:743721568#searchVariation=MLB28357019&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1899235400-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1373,16 +1365,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros Som Automotiv</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>99.98999999999999</v>
+        <v>70.17</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1396,19 +1388,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2171429584-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2707795683-controle-jfa-k1200-longa-distancia-1200-metros-som-automotiv-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1418,16 +1410,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 40a Amperes Jfa Carregador </t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>455.79</v>
+        <v>777.0700000000001</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1446,14 +1438,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2182385988-fonte-automotiva-40a-amperes-jfa-carregador-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:743721568#wid=MLB3399854983&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1463,20 +1455,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>789.98</v>
+        <v>64.86</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1486,19 +1478,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3399842475-fonte-carregador-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:743721568#wid=MLB4471561902&amp;sid=search&amp;searchVariation=MLB28357019&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1508,20 +1500,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Controle Longa Distancia K1200 Preto Com Nota Fiscal Jfa</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>499.46</v>
+        <v>70.17</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1531,19 +1523,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:743721568#searchVariation=MLB22144397&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=b91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1899216969-controle-longa-distancia-k1200-preto-com-nota-fiscal-jfa-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1553,16 +1545,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 120a Amperes Jfa Carregador </t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>710.1900000000001</v>
+        <v>581.42</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1576,19 +1568,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2182424053-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3683779028-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1598,18 +1590,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo Com Nf</t>
+          <t>Fonte Automotiva 60 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>59.99</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
+        <v>498.19</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1622,7 +1618,457 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1899242924-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-com-nf-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db91dbf27-fd70-4d7a-812c-dbb6d32055c6</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2182312935-fonte-automotiva-60-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>mr sta_catarina</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:743721568#wid=MLB4628835784&amp;sid=search&amp;searchVariation=MLB33922926&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>mr sta_catarina</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>525.75</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:743721568#wid=MLB3668637761&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>mr sta_catarina</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>423.3</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3340364773-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>mr sta_catarina</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Automotiva 120a Amperes Jfa Carregador </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>710.1900000000001</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2182424053-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>mr sta_catarina</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>423.99</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:743721568#wid=MLB3639831795&amp;sid=search&amp;searchVariation=MLB21621306&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=116295fe-e118-4b7a-b876-12952de02d19</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>mr sta_catarina</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>739.25</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3399853927-fonte-carregador-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>mr sta_catarina</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Adaptador Conversor De Fio P Rca Jfa Similar Stetsom St6000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>55.54</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3349019536-adaptador-conversor-de-fio-p-rca-jfa-similar-stetsom-st6000-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>mr sta_catarina</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>116.09</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2068752925-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>mr sta_catarina</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2171429584-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>mr sta_catarina</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Automotiva 40a Amperes Jfa Carregador </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>455.79</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2182385988-fonte-automotiva-40a-amperes-jfa-carregador-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D116295fe-e118-4b7a-b876-12952de02d19</t>
         </is>
       </c>
     </row>
